--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H2">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>93.27323866106001</v>
+        <v>65.45155738680388</v>
       </c>
       <c r="R2">
-        <v>839.45914794954</v>
+        <v>589.0640164812349</v>
       </c>
       <c r="S2">
-        <v>0.0009365237493449968</v>
+        <v>0.004516876658575687</v>
       </c>
       <c r="T2">
-        <v>0.0009365237493449972</v>
+        <v>0.004516876658575686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H3">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>38.864738798592</v>
+        <v>29.49620602222933</v>
       </c>
       <c r="R3">
-        <v>349.782649187328</v>
+        <v>265.465854200064</v>
       </c>
       <c r="S3">
-        <v>0.0003902271586090726</v>
+        <v>0.002035562327585024</v>
       </c>
       <c r="T3">
-        <v>0.0003902271586090728</v>
+        <v>0.002035562327585024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H4">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>3.235318184116</v>
+        <v>6.087488474427667</v>
       </c>
       <c r="R4">
-        <v>29.117863657044</v>
+        <v>54.787396269849</v>
       </c>
       <c r="S4">
-        <v>3.248469078170132E-05</v>
+        <v>0.0004201035956561452</v>
       </c>
       <c r="T4">
-        <v>3.248469078170133E-05</v>
+        <v>0.0004201035956561452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H5">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>3.74891391022</v>
+        <v>3.950773833594778</v>
       </c>
       <c r="R5">
-        <v>33.74022519198</v>
+        <v>35.556964502353</v>
       </c>
       <c r="S5">
-        <v>3.764152463847713E-05</v>
+        <v>0.0002726468066575558</v>
       </c>
       <c r="T5">
-        <v>3.764152463847714E-05</v>
+        <v>0.0002726468066575558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H6">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>3.031877006568</v>
+        <v>2.992852655510445</v>
       </c>
       <c r="R6">
-        <v>27.286893059112</v>
+        <v>26.935673899594</v>
       </c>
       <c r="S6">
-        <v>3.044200954640338E-05</v>
+        <v>0.0002065397194804857</v>
       </c>
       <c r="T6">
-        <v>3.044200954640339E-05</v>
+        <v>0.0002065397194804857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>312.6255969831361</v>
+        <v>289.0527179530472</v>
       </c>
       <c r="R7">
-        <v>2813.630372848225</v>
+        <v>2601.474461577424</v>
       </c>
       <c r="S7">
-        <v>0.003138963548717172</v>
+        <v>0.01994781372586886</v>
       </c>
       <c r="T7">
-        <v>0.003138963548717172</v>
+        <v>0.01994781372586886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>130.2636462818133</v>
@@ -948,10 +948,10 @@
         <v>1172.37281653632</v>
       </c>
       <c r="S8">
-        <v>0.001307931408520128</v>
+        <v>0.008989622964569979</v>
       </c>
       <c r="T8">
-        <v>0.001307931408520129</v>
+        <v>0.00898962296456998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>10.84387433372055</v>
+        <v>26.88408281322167</v>
       </c>
       <c r="R9">
-        <v>97.594869003485</v>
+        <v>241.956745318995</v>
       </c>
       <c r="S9">
-        <v>0.0001088795242260814</v>
+        <v>0.001855297123468286</v>
       </c>
       <c r="T9">
-        <v>0.0001088795242260814</v>
+        <v>0.001855297123468286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>12.56530239589722</v>
+        <v>17.44774242527944</v>
       </c>
       <c r="R10">
-        <v>113.087721563075</v>
+        <v>157.029681827515</v>
       </c>
       <c r="S10">
-        <v>0.0001261637773104598</v>
+        <v>0.001204085947716115</v>
       </c>
       <c r="T10">
-        <v>0.0001261637773104598</v>
+        <v>0.001204085947716115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>10.16199686817</v>
+        <v>13.21728968794111</v>
       </c>
       <c r="R11">
-        <v>91.45797181353001</v>
+        <v>118.95560719147</v>
       </c>
       <c r="S11">
-        <v>0.0001020330326728952</v>
+        <v>0.0009121382235150755</v>
       </c>
       <c r="T11">
-        <v>0.0001020330326728952</v>
+        <v>0.0009121382235150756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H12">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>46456.23327060063</v>
+        <v>2514.232720792966</v>
       </c>
       <c r="R12">
-        <v>418106.0994354057</v>
+        <v>22628.0944871367</v>
       </c>
       <c r="S12">
-        <v>0.4664506817558624</v>
+        <v>0.1735096847835533</v>
       </c>
       <c r="T12">
-        <v>0.4664506817558625</v>
+        <v>0.1735096847835532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H13">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>19357.20682101846</v>
+        <v>1133.05671066112</v>
       </c>
       <c r="R13">
-        <v>174214.8613891661</v>
+        <v>10197.51039595008</v>
       </c>
       <c r="S13">
-        <v>0.1943588983196215</v>
+        <v>0.07819336336005361</v>
       </c>
       <c r="T13">
-        <v>0.1943588983196216</v>
+        <v>0.07819336336005361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H14">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>1611.402138742899</v>
+        <v>233.84260544642</v>
       </c>
       <c r="R14">
-        <v>14502.61924868609</v>
+        <v>2104.58344901778</v>
       </c>
       <c r="S14">
-        <v>0.01617952152558928</v>
+        <v>0.01613770929970894</v>
       </c>
       <c r="T14">
-        <v>0.01617952152558929</v>
+        <v>0.01613770929970893</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H15">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>1867.206731798506</v>
+        <v>151.7636132960733</v>
       </c>
       <c r="R15">
-        <v>16804.86058618655</v>
+        <v>1365.87251966466</v>
       </c>
       <c r="S15">
-        <v>0.01874796537965825</v>
+        <v>0.01047335693583279</v>
       </c>
       <c r="T15">
-        <v>0.01874796537965826</v>
+        <v>0.01047335693583279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H16">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>1510.07499564498</v>
+        <v>114.9663717018533</v>
       </c>
       <c r="R16">
-        <v>13590.67496080482</v>
+        <v>1034.69734531668</v>
       </c>
       <c r="S16">
-        <v>0.01516213135744776</v>
+        <v>0.007933942928085847</v>
       </c>
       <c r="T16">
-        <v>0.01516213135744776</v>
+        <v>0.007933942928085845</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H17">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>782.5506001334639</v>
+        <v>1058.898015502351</v>
       </c>
       <c r="R17">
-        <v>7042.955401201176</v>
+        <v>9530.082139521153</v>
       </c>
       <c r="S17">
-        <v>0.007857315052094711</v>
+        <v>0.07307559851889783</v>
       </c>
       <c r="T17">
-        <v>0.007857315052094712</v>
+        <v>0.07307559851889782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H18">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>326.0702116433067</v>
+        <v>477.1998600003413</v>
       </c>
       <c r="R18">
-        <v>2934.63190478976</v>
+        <v>4294.798740003072</v>
       </c>
       <c r="S18">
-        <v>0.003273956190881083</v>
+        <v>0.03293203393729638</v>
       </c>
       <c r="T18">
-        <v>0.003273956190881085</v>
+        <v>0.03293203393729638</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H19">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>27.14390775903944</v>
+        <v>98.48550167981968</v>
       </c>
       <c r="R19">
-        <v>244.295169831355</v>
+        <v>886.3695151183771</v>
       </c>
       <c r="S19">
-        <v>0.000272542420862493</v>
+        <v>0.006796581800441352</v>
       </c>
       <c r="T19">
-        <v>0.0002725424208624932</v>
+        <v>0.006796581800441352</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H20">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>31.45291052830277</v>
+        <v>63.91699050595212</v>
       </c>
       <c r="R20">
-        <v>283.076194754725</v>
+        <v>575.252914553569</v>
       </c>
       <c r="S20">
-        <v>0.0003158076005360838</v>
+        <v>0.004410974681573377</v>
       </c>
       <c r="T20">
-        <v>0.0003158076005360839</v>
+        <v>0.004410974681573377</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H21">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>25.43706217431</v>
+        <v>48.41940916519579</v>
       </c>
       <c r="R21">
-        <v>228.93355956879</v>
+        <v>435.774682486762</v>
       </c>
       <c r="S21">
-        <v>0.0002554045852998997</v>
+        <v>0.00334147127757105</v>
       </c>
       <c r="T21">
-        <v>0.0002554045852998998</v>
+        <v>0.00334147127757105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H22">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>17703.86935163248</v>
+        <v>4855.770348193708</v>
       </c>
       <c r="R22">
-        <v>159334.8241646923</v>
+        <v>43701.93313374336</v>
       </c>
       <c r="S22">
-        <v>0.1777583189038201</v>
+        <v>0.3351015105040438</v>
       </c>
       <c r="T22">
-        <v>0.1777583189038202</v>
+        <v>0.3351015105040439</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H23">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>7376.781035510954</v>
+        <v>2188.287159318699</v>
       </c>
       <c r="R23">
-        <v>66391.02931959859</v>
+        <v>19694.58443386829</v>
       </c>
       <c r="S23">
-        <v>0.07406766112816432</v>
+        <v>0.1510158594664754</v>
       </c>
       <c r="T23">
-        <v>0.07406766112816435</v>
+        <v>0.1510158594664754</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H24">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>614.0845033878184</v>
+        <v>451.6232647361954</v>
       </c>
       <c r="R24">
-        <v>5526.760530490366</v>
+        <v>4064.609382625758</v>
       </c>
       <c r="S24">
-        <v>0.006165806288953454</v>
+        <v>0.03116696782173057</v>
       </c>
       <c r="T24">
-        <v>0.006165806288953455</v>
+        <v>0.03116696782173058</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H25">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>711.5683236671077</v>
+        <v>293.1030398591696</v>
       </c>
       <c r="R25">
-        <v>6404.11491300397</v>
+        <v>2637.927358732526</v>
       </c>
       <c r="S25">
-        <v>0.007144607005847059</v>
+        <v>0.02022733044339116</v>
       </c>
       <c r="T25">
-        <v>0.007144607005847061</v>
+        <v>0.02022733044339117</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H26">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>575.4700403354519</v>
+        <v>222.0360486650609</v>
       </c>
       <c r="R26">
-        <v>5179.230363019068</v>
+        <v>1998.324437985548</v>
       </c>
       <c r="S26">
-        <v>0.00577809206099405</v>
+        <v>0.01532292714825135</v>
       </c>
       <c r="T26">
-        <v>0.005778092060994051</v>
+        <v>0.01532292714825136</v>
       </c>
     </row>
   </sheetData>
